--- a/tables/output_of_agricultural_forestry_and_fishery_production.xlsx
+++ b/tables/output_of_agricultural_forestry_and_fishery_production.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>2022 г.</t>
   </si>
@@ -75,38 +75,326 @@
     <t>Восточно-Казахстанская</t>
   </si>
   <si>
-    <t>Регионы(млн тенге)</t>
-  </si>
-  <si>
-    <t>2019г</t>
-  </si>
-  <si>
-    <t>2020г</t>
-  </si>
-  <si>
-    <t>2021г</t>
-  </si>
-  <si>
-    <t>РеспубликаКазахстан</t>
-  </si>
-  <si>
-    <t>г.Астана</t>
-  </si>
-  <si>
-    <t>г.Алматы</t>
-  </si>
-  <si>
-    <t>г.Шымкент</t>
-  </si>
-  <si>
-    <t>2023 г.   (янв-май)</t>
+    <t>Регионы (млн тенге)</t>
+  </si>
+  <si>
+    <t>2019 г</t>
+  </si>
+  <si>
+    <t>2020 г</t>
+  </si>
+  <si>
+    <t>2021 г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 г. </t>
+  </si>
+  <si>
+    <t>(янв-май)</t>
+  </si>
+  <si>
+    <t>Республика Казахстан</t>
+  </si>
+  <si>
+    <t>5 177 894</t>
+  </si>
+  <si>
+    <t>6 363 976</t>
+  </si>
+  <si>
+    <t>7 375 980</t>
+  </si>
+  <si>
+    <t>9 257 447</t>
+  </si>
+  <si>
+    <t>1 537 921</t>
+  </si>
+  <si>
+    <t>473 899</t>
+  </si>
+  <si>
+    <t>99 561</t>
+  </si>
+  <si>
+    <t>490 923</t>
+  </si>
+  <si>
+    <t>674 488</t>
+  </si>
+  <si>
+    <t>747 886</t>
+  </si>
+  <si>
+    <t>1 078 797</t>
+  </si>
+  <si>
+    <t>149 937</t>
+  </si>
+  <si>
+    <t>272 394</t>
+  </si>
+  <si>
+    <t>326 347</t>
+  </si>
+  <si>
+    <t>376 434</t>
+  </si>
+  <si>
+    <t>443 073</t>
+  </si>
+  <si>
+    <t>106 437</t>
+  </si>
+  <si>
+    <t>850 255</t>
+  </si>
+  <si>
+    <t>968 193</t>
+  </si>
+  <si>
+    <t>1 041 063</t>
+  </si>
+  <si>
+    <t>740 044</t>
+  </si>
+  <si>
+    <t>157 034</t>
+  </si>
+  <si>
+    <t>78 385</t>
+  </si>
+  <si>
+    <t>87 087</t>
+  </si>
+  <si>
+    <t>114 018</t>
+  </si>
+  <si>
+    <t>133 359</t>
+  </si>
+  <si>
+    <t>33 400</t>
+  </si>
+  <si>
+    <t>171 297</t>
+  </si>
+  <si>
+    <t>197 540</t>
+  </si>
+  <si>
+    <t>232 214</t>
+  </si>
+  <si>
+    <t>299 070</t>
+  </si>
+  <si>
+    <t>64 912</t>
+  </si>
+  <si>
+    <t>326 652</t>
+  </si>
+  <si>
+    <t>392 217</t>
+  </si>
+  <si>
+    <t>427 528</t>
+  </si>
+  <si>
+    <t>591 285</t>
+  </si>
+  <si>
+    <t>76 584</t>
+  </si>
+  <si>
+    <t>510 375</t>
+  </si>
+  <si>
+    <t>70 729</t>
+  </si>
+  <si>
+    <t>334 541</t>
+  </si>
+  <si>
+    <t>384 397</t>
+  </si>
+  <si>
+    <t>489 189</t>
+  </si>
+  <si>
+    <t>469 323</t>
+  </si>
+  <si>
+    <t>92 522</t>
+  </si>
+  <si>
+    <t>399 033</t>
+  </si>
+  <si>
+    <t>593 814</t>
+  </si>
+  <si>
+    <t>610 570</t>
+  </si>
+  <si>
+    <t>998 844</t>
+  </si>
+  <si>
+    <t>107 492,3</t>
+  </si>
+  <si>
+    <t>130 206</t>
+  </si>
+  <si>
+    <t>145 476</t>
+  </si>
+  <si>
+    <t>166 840</t>
+  </si>
+  <si>
+    <t>180 141</t>
+  </si>
+  <si>
+    <t>29 327</t>
+  </si>
+  <si>
+    <t>20 636</t>
+  </si>
+  <si>
+    <t>20 193</t>
+  </si>
+  <si>
+    <t>22 198</t>
+  </si>
+  <si>
+    <t>29 568</t>
+  </si>
+  <si>
+    <t>9 249</t>
+  </si>
+  <si>
+    <t>237 116</t>
+  </si>
+  <si>
+    <t>302 708</t>
+  </si>
+  <si>
+    <t>409 911</t>
+  </si>
+  <si>
+    <t>474 659</t>
+  </si>
+  <si>
+    <t>87 776</t>
+  </si>
+  <si>
+    <t>612 887</t>
+  </si>
+  <si>
+    <t>779 432</t>
+  </si>
+  <si>
+    <t>895 075</t>
+  </si>
+  <si>
+    <t>1 117 176</t>
+  </si>
+  <si>
+    <t>100 975</t>
+  </si>
+  <si>
+    <t>616 836</t>
+  </si>
+  <si>
+    <t>750 332</t>
+  </si>
+  <si>
+    <t>906 496</t>
+  </si>
+  <si>
+    <t>1 036 599</t>
+  </si>
+  <si>
+    <t>210 357</t>
+  </si>
+  <si>
+    <t>94 083</t>
+  </si>
+  <si>
+    <t>22 517</t>
+  </si>
+  <si>
+    <t>594 848</t>
+  </si>
+  <si>
+    <t>694 132</t>
+  </si>
+  <si>
+    <t>881 548</t>
+  </si>
+  <si>
+    <t>530 157</t>
+  </si>
+  <si>
+    <t>100 610</t>
+  </si>
+  <si>
+    <t>г. Астана</t>
+  </si>
+  <si>
+    <t>3 274</t>
+  </si>
+  <si>
+    <t>2 530</t>
+  </si>
+  <si>
+    <t>2 489</t>
+  </si>
+  <si>
+    <t>3 366</t>
+  </si>
+  <si>
+    <t>1 164</t>
+  </si>
+  <si>
+    <t>г. Алматы</t>
+  </si>
+  <si>
+    <t>7 415</t>
+  </si>
+  <si>
+    <t>8 280</t>
+  </si>
+  <si>
+    <t>8 103</t>
+  </si>
+  <si>
+    <t>7 633</t>
+  </si>
+  <si>
+    <t>г. Шымкент</t>
+  </si>
+  <si>
+    <t>31 196</t>
+  </si>
+  <si>
+    <t>36 810</t>
+  </si>
+  <si>
+    <t>44 417</t>
+  </si>
+  <si>
+    <t>45 996</t>
+  </si>
+  <si>
+    <t>16 960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +417,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +442,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF538235"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -200,38 +521,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,441 +871,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5177894</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6363976</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7375980</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9257447</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1537921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>473899</v>
-      </c>
-      <c r="F3" s="5">
-        <v>99561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>490923</v>
-      </c>
-      <c r="C4" s="4">
-        <v>674488</v>
-      </c>
-      <c r="D4" s="4">
-        <v>747886</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1078797</v>
-      </c>
-      <c r="F4" s="5">
-        <v>149937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>272394</v>
-      </c>
-      <c r="C5" s="4">
-        <v>326347</v>
-      </c>
-      <c r="D5" s="4">
-        <v>376434</v>
-      </c>
-      <c r="E5" s="5">
-        <v>443073</v>
-      </c>
-      <c r="F5" s="5">
-        <v>106437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>850255</v>
-      </c>
-      <c r="C6" s="4">
-        <v>968193</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1041063</v>
-      </c>
-      <c r="E6" s="5">
-        <v>740044</v>
-      </c>
-      <c r="F6" s="5">
-        <v>157034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>78385</v>
-      </c>
-      <c r="C7" s="4">
-        <v>87087</v>
-      </c>
-      <c r="D7" s="4">
-        <v>114018</v>
-      </c>
-      <c r="E7" s="5">
-        <v>133359</v>
-      </c>
-      <c r="F7" s="5">
-        <v>33400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>171297</v>
-      </c>
-      <c r="C8" s="4">
-        <v>197540</v>
-      </c>
-      <c r="D8" s="4">
-        <v>232214</v>
-      </c>
-      <c r="E8" s="5">
-        <v>299070</v>
-      </c>
-      <c r="F8" s="5">
-        <v>64912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>326652</v>
-      </c>
-      <c r="C9" s="4">
-        <v>392217</v>
-      </c>
-      <c r="D9" s="4">
-        <v>427528</v>
-      </c>
-      <c r="E9" s="5">
-        <v>591285</v>
-      </c>
-      <c r="F9" s="5">
-        <v>76584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
-        <v>510375</v>
-      </c>
-      <c r="F10" s="5">
-        <v>70729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>334541</v>
-      </c>
-      <c r="C11" s="4">
-        <v>384397</v>
-      </c>
-      <c r="D11" s="4">
-        <v>489189</v>
-      </c>
-      <c r="E11" s="5">
-        <v>469323</v>
-      </c>
-      <c r="F11" s="5">
-        <v>92522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>399033</v>
-      </c>
-      <c r="C12" s="4">
-        <v>593814</v>
-      </c>
-      <c r="D12" s="4">
-        <v>610570</v>
-      </c>
-      <c r="E12" s="5">
-        <v>998844</v>
-      </c>
-      <c r="F12" s="6">
-        <v>107492.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>130206</v>
-      </c>
-      <c r="C13" s="4">
-        <v>145476</v>
-      </c>
-      <c r="D13" s="4">
-        <v>166840</v>
-      </c>
-      <c r="E13" s="5">
-        <v>180141</v>
-      </c>
-      <c r="F13" s="5">
-        <v>29327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
-        <v>20636</v>
-      </c>
-      <c r="C14" s="4">
-        <v>20193</v>
-      </c>
-      <c r="D14" s="4">
-        <v>22198</v>
-      </c>
-      <c r="E14" s="5">
-        <v>29568</v>
-      </c>
-      <c r="F14" s="5">
-        <v>9249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
-        <v>237116</v>
-      </c>
-      <c r="C15" s="4">
-        <v>302708</v>
-      </c>
-      <c r="D15" s="4">
-        <v>409911</v>
-      </c>
-      <c r="E15" s="5">
-        <v>474659</v>
-      </c>
-      <c r="F15" s="5">
-        <v>87776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
-        <v>612887</v>
-      </c>
-      <c r="C16" s="4">
-        <v>779432</v>
-      </c>
-      <c r="D16" s="4">
-        <v>895075</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1117176</v>
-      </c>
-      <c r="F16" s="5">
-        <v>100975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
-        <v>616836</v>
-      </c>
-      <c r="C17" s="4">
-        <v>750332</v>
-      </c>
-      <c r="D17" s="4">
-        <v>906496</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1036599</v>
-      </c>
-      <c r="F17" s="5">
-        <v>210357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5">
-        <v>94083</v>
-      </c>
-      <c r="F18" s="5">
-        <v>22517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
-        <v>594848</v>
-      </c>
-      <c r="C19" s="4">
-        <v>694132</v>
-      </c>
-      <c r="D19" s="4">
-        <v>881548</v>
-      </c>
-      <c r="E19" s="5">
-        <v>530157</v>
-      </c>
-      <c r="F19" s="5">
-        <v>100610</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3274</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2530</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2489</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3366</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4">
-        <v>7415</v>
-      </c>
-      <c r="C21" s="4">
-        <v>8280</v>
-      </c>
-      <c r="D21" s="4">
-        <v>8103</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7633</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="6">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4">
-        <v>31196</v>
-      </c>
-      <c r="C22" s="4">
-        <v>36810</v>
-      </c>
-      <c r="D22" s="4">
-        <v>44417</v>
-      </c>
-      <c r="E22" s="5">
-        <v>45996</v>
-      </c>
-      <c r="F22" s="5">
-        <v>16960</v>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
